--- a/README_Evidence/Technology/PQVP Tool List.xlsx
+++ b/README_Evidence/Technology/PQVP Tool List.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>GitHub is a web-based Git repository hosting service. It offers all of the distributed revision control and source code management (SCM) functionality of Git</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Proprietary</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>https://www.atlassian.com/software/jira</t>
   </si>
   <si>
-    <t>RFI Reference</t>
-  </si>
-  <si>
     <t>POC Software</t>
   </si>
   <si>
@@ -247,18 +241,9 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
-    <t>Ops</t>
-  </si>
-  <si>
     <t>Dev FrontEnd</t>
   </si>
   <si>
@@ -268,13 +253,6 @@
     <t>Dev</t>
   </si>
   <si>
-    <t>Dev Front End
-Ops</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
     <t>Dev FrontEnd (Test)</t>
   </si>
   <si>
@@ -293,69 +271,73 @@
     <t>Jenkins</t>
   </si>
   <si>
-    <t>Dev BackEnd Ops</t>
-  </si>
-  <si>
     <t>Dev Ops</t>
   </si>
   <si>
     <t>Dev BackEnd (Test)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tool </t>
-  </si>
-  <si>
-    <t>Ops (Test)</t>
-  </si>
-  <si>
     <t>SLF4J</t>
   </si>
   <si>
-    <t>Performant and flexible Logging tool</t>
-  </si>
-  <si>
     <t>https://www.slf4j.org/</t>
   </si>
   <si>
-    <t>Dev  DevOps</t>
-  </si>
-  <si>
     <t>Dropwizard is a Java framework for developing ops-friendly, high-performance, RESTful web services.</t>
   </si>
   <si>
     <t>http://www.dropwizard.io/1.0.6/docs/</t>
   </si>
   <si>
-    <t>DevOps</t>
-  </si>
-  <si>
     <t>Apache License v2</t>
   </si>
   <si>
-    <t>This software consists of voluntary contributions made by many
-individuals under a CLA.</t>
-  </si>
-  <si>
     <t>DropWizard v1.0.0</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>pre-2011</t>
-  </si>
-  <si>
-    <t>Are we using it?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modern </t>
+  </si>
+  <si>
+    <t>Usage Plan</t>
+  </si>
+  <si>
+    <t>2011 (pre)</t>
+  </si>
+  <si>
+    <t>Planning and Collberation</t>
+  </si>
+  <si>
+    <t>HipChat</t>
+  </si>
+  <si>
+    <t>Collberation and communication tool - teams share ideas and information real-time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.atlassian.com/software/hipchat </t>
+  </si>
+  <si>
+    <t>Consists of voluntary contributions from persons under a CLA.</t>
+  </si>
+  <si>
+    <t>Open
+Source</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Commonly
+Used</t>
+  </si>
+  <si>
+    <t>Performance and flexible Logging tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +382,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -476,12 +471,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,13 +543,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -552,26 +552,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -885,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -896,31 +959,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="59.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="37.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13"/>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -928,29 +991,28 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>109</v>
+      <c r="E2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -958,670 +1020,691 @@
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="36">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2013</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="11">
-        <v>2010</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="C8" s="14">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="E8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2012</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="15">
         <v>2013</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2012</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2010</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2008</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="H10" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="15">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="11">
+      <c r="C14" s="11">
         <v>2010</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2009</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2008</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="39">
+        <v>2004</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2004</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2004</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2002</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="14">
-        <v>2012</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="C25" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2016</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2004</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="C26" s="11">
+        <v>1995</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1995</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2013</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="26">
-        <v>2002</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="1:10" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2004</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2009</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2016</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J25"/>
+  <sortState ref="A3:G25">
+    <sortCondition ref="E3:E25"/>
+    <sortCondition descending="1" ref="C3:C25"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="I7" r:id="rId4"/>
-    <hyperlink ref="I23" r:id="rId5"/>
-    <hyperlink ref="I8" r:id="rId6"/>
-    <hyperlink ref="I21" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
-    <hyperlink ref="I24" r:id="rId10"/>
-    <hyperlink ref="I14" r:id="rId11"/>
-    <hyperlink ref="I16" r:id="rId12"/>
-    <hyperlink ref="I17" r:id="rId13"/>
-    <hyperlink ref="I18" r:id="rId14"/>
-    <hyperlink ref="I19" r:id="rId15"/>
-    <hyperlink ref="I20" r:id="rId16"/>
-    <hyperlink ref="I13" r:id="rId17"/>
+    <hyperlink ref="I14" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId2"/>
+    <hyperlink ref="I8" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I19" r:id="rId6"/>
+    <hyperlink ref="I22" r:id="rId7"/>
+    <hyperlink ref="I16" r:id="rId8"/>
+    <hyperlink ref="I9" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I5" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I23" r:id="rId13"/>
+    <hyperlink ref="I26" r:id="rId14"/>
+    <hyperlink ref="I10" r:id="rId15"/>
+    <hyperlink ref="I24" r:id="rId16"/>
+    <hyperlink ref="I6" r:id="rId17"/>
+    <hyperlink ref="I17" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId18"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>
--- a/README_Evidence/Technology/PQVP Tool List.xlsx
+++ b/README_Evidence/Technology/PQVP Tool List.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$I$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -200,15 +200,6 @@
   </si>
   <si>
     <t>Docker</t>
-  </si>
-  <si>
-    <t>Gulp</t>
-  </si>
-  <si>
-    <t>Gulp is a toolkit for automating painful or time-consuming tasks in your development workflow, so you can stop messing around and build something.</t>
-  </si>
-  <si>
-    <t>https://github.com/gulpjs/gulp</t>
   </si>
   <si>
     <t>Eclipse</t>
@@ -390,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -582,18 +567,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -610,9 +583,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,11 +929,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1006,13 +976,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -1023,60 +993,60 @@
     </row>
     <row r="3" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="14">
         <v>2016</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="14">
         <v>2016</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,22 +1054,22 @@
         <v>31</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="14">
         <v>2016</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>101</v>
+      <c r="D5" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>44</v>
@@ -1108,67 +1078,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="36">
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="14">
         <v>2013</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2013</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>73</v>
+      <c r="E7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>75</v>
@@ -1179,185 +1149,183 @@
       <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2012</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>84</v>
-      </c>
       <c r="C10" s="15">
-        <v>2013</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>73</v>
+        <v>2011</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" s="15">
         <v>2011</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2011</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2010</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>73</v>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="11">
         <v>2010</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>75</v>
@@ -1366,316 +1334,289 @@
         <v>2010</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="11">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="37" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="11">
         <v>2009</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>98</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2008</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="31">
+        <v>2008</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2004</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="26" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2004</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11">
-        <v>2009</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2008</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="31">
-        <v>2008</v>
-      </c>
-      <c r="D20" s="9" t="s">
+    </row>
+    <row r="22" spans="1:9" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2004</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="39">
-        <v>2004</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="26" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2004</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="38">
-        <v>2004</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="11">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1995</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1685,26 +1626,25 @@
     <sortCondition descending="1" ref="C3:C25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1"/>
-    <hyperlink ref="I7" r:id="rId2"/>
-    <hyperlink ref="I8" r:id="rId3"/>
-    <hyperlink ref="I15" r:id="rId4"/>
-    <hyperlink ref="I18" r:id="rId5"/>
-    <hyperlink ref="I19" r:id="rId6"/>
-    <hyperlink ref="I22" r:id="rId7"/>
-    <hyperlink ref="I16" r:id="rId8"/>
-    <hyperlink ref="I9" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId1"/>
+    <hyperlink ref="I6" r:id="rId2"/>
+    <hyperlink ref="I7" r:id="rId3"/>
+    <hyperlink ref="I14" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I18" r:id="rId6"/>
+    <hyperlink ref="I21" r:id="rId7"/>
+    <hyperlink ref="I15" r:id="rId8"/>
+    <hyperlink ref="I8" r:id="rId9"/>
+    <hyperlink ref="I10" r:id="rId10"/>
     <hyperlink ref="I5" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I23" r:id="rId13"/>
-    <hyperlink ref="I26" r:id="rId14"/>
-    <hyperlink ref="I10" r:id="rId15"/>
-    <hyperlink ref="I24" r:id="rId16"/>
-    <hyperlink ref="I6" r:id="rId17"/>
-    <hyperlink ref="I17" r:id="rId18"/>
+    <hyperlink ref="I12" r:id="rId12"/>
+    <hyperlink ref="I22" r:id="rId13"/>
+    <hyperlink ref="I25" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="I23" r:id="rId16"/>
+    <hyperlink ref="I16" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId19"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId18"/>
 </worksheet>
 </file>
--- a/README_Evidence/Technology/PQVP Tool List.xlsx
+++ b/README_Evidence/Technology/PQVP Tool List.xlsx
@@ -283,9 +283,6 @@
     <t>Apache License v2</t>
   </si>
   <si>
-    <t>DropWizard v1.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modern </t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Performance and flexible Logging tool</t>
+  </si>
+  <si>
+    <t>DropWizard v1.0.6</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,8 +932,8 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,13 +976,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="3" spans="1:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>73</v>
@@ -1060,7 +1060,7 @@
         <v>2016</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>70</v>
@@ -1069,7 +1069,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>44</v>
@@ -1156,7 +1156,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>40</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>70</v>
@@ -1207,10 +1207,10 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>43</v>
@@ -1250,7 +1250,7 @@
         <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>48</v>
@@ -1314,7 +1314,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>18</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="11">
         <v>2009</v>
@@ -1365,16 +1365,16 @@
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,11 +1415,11 @@
         <v>2008</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>70</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>70</v>
@@ -1503,10 +1503,10 @@
         <v>70</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>84</v>
@@ -1544,7 +1544,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="11">
         <v>2002</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>70</v>
